--- a/data/trans_dic/P13A_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P13A_1_R-Estudios-trans_dic.xlsx
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>85,12; 98,37</t>
+          <t>86,53; 98,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>87,88; 98,81</t>
+          <t>87,85; 98,71</t>
         </is>
       </c>
     </row>
@@ -634,12 +634,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>88,22; 99,53</t>
+          <t>91,55; 99,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>92,98; 99,65</t>
+          <t>92,98; 99,78</t>
         </is>
       </c>
     </row>
@@ -684,12 +684,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>52,42; 98,08</t>
+          <t>54,88; 97,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>56,47; 98,08</t>
+          <t>57,51; 97,41</t>
         </is>
       </c>
     </row>
@@ -734,12 +734,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>88,39; 97,6</t>
+          <t>88,75; 97,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,68; 97,8</t>
+          <t>90,67; 97,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P13A_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P13A_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>86,53; 98,65</t>
+          <t>85,12; 98,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>87,85; 98,71</t>
+          <t>87,88; 98,81</t>
         </is>
       </c>
     </row>
@@ -634,12 +634,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>91,55; 99,81</t>
+          <t>88,22; 99,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>92,98; 99,78</t>
+          <t>92,98; 99,65</t>
         </is>
       </c>
     </row>
@@ -684,12 +684,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>54,88; 97,1</t>
+          <t>52,42; 98,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>57,51; 97,41</t>
+          <t>56,47; 98,08</t>
         </is>
       </c>
     </row>
@@ -734,12 +734,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>88,75; 97,61</t>
+          <t>88,39; 97,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90,67; 97,99</t>
+          <t>89,68; 97,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P13A_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P13A_1_R-Estudios-trans_dic.xlsx
@@ -561,12 +561,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>94,0%</t>
+          <t>93,65%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>94,97%</t>
+          <t>94,75%</t>
         </is>
       </c>
     </row>
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>85,12; 98,37</t>
+          <t>83,82; 98,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>87,88; 98,81</t>
+          <t>87,27; 98,83</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>97,65%</t>
+          <t>97,81%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>98,19%</t>
+          <t>98,32%</t>
         </is>
       </c>
     </row>
@@ -634,12 +634,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>88,22; 99,53</t>
+          <t>89,47; 99,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>92,98; 99,65</t>
+          <t>93,55; 99,69</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>84,78%</t>
+          <t>84,57%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>86,15%</t>
+          <t>85,96%</t>
         </is>
       </c>
     </row>
@@ -684,12 +684,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>52,42; 98,08</t>
+          <t>52,61; 98,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>56,47; 98,08</t>
+          <t>56,26; 97,96</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>94,52%</t>
+          <t>94,49%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>95,55%</t>
+          <t>95,58%</t>
         </is>
       </c>
     </row>
@@ -734,12 +734,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>88,39; 97,6</t>
+          <t>88,31; 97,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,68; 97,8</t>
+          <t>89,83; 97,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P13A_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P13A_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,17 +557,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>93,65%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>94,75%</t>
+          <t>4,17%</t>
         </is>
       </c>
     </row>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>87,39; 100</t>
+          <t>1,06; 3,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>83,82; 98,19</t>
+          <t>4,45; 8,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>87,27; 98,83</t>
+          <t>3,33; 5,84</t>
         </is>
       </c>
     </row>
@@ -606,17 +607,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>97,81%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>98,32%</t>
+          <t>2,34%</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>92,94; 100</t>
+          <t>0,69; 1,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>89,47; 99,58</t>
+          <t>2,69; 4,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>93,55; 99,69</t>
+          <t>1,81; 2,85</t>
         </is>
       </c>
     </row>
@@ -656,17 +657,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>84,57%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>85,96%</t>
+          <t>1,7%</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>0,0; 1,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>52,61; 98,08</t>
+          <t>2,02; 4,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>56,26; 97,96</t>
+          <t>1,2; 2,5</t>
         </is>
       </c>
     </row>
@@ -706,17 +707,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>94,49%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>95,58%</t>
+          <t>2,55%</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>95,56; 100</t>
+          <t>0,76; 1,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>88,31; 97,58</t>
+          <t>3,22; 4,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,83; 97,83</t>
+          <t>2,13; 2,99</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con cefaleas crónicas (15 días o más al mes durante más de 3 meses)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>9686</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>43071</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>52757</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5430; 16101</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>33433; 65152</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>42123; 73912</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>25372</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>79975</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>105347</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>15778; 39038</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>60081; 101318</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>81458; 128576</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2336</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>19857</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>22193</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8290</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13305; 30456</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15643; 32573</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>37393</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>142903</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>180297</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>26150; 53199</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>117053; 173463</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>151023; 211515</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>